--- a/inbazar_data/files/clothes_data.xlsx
+++ b/inbazar_data/files/clothes_data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -685,6 +685,216 @@
         <v>802518333</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>krosovka</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>krosovka</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>shortik</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>shim</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>kurtka</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tufli</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tufli</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>krosovka</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>krosovka</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>shortik</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1073079396</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>web_dev_17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
